--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\岩﨑\Desktop\学校　関係\システム設計\設計演習2（フロントエンド）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{E6149034-C2A0-483B-953B-4C02E7D803C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F694110-7232-48DC-AF67-8366D15537CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC477B-ACFA-4573-A7C5-C14F07E49395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="120" windowWidth="14400" windowHeight="9270" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -22,19 +22,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -118,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -159,29 +146,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>学校法人　麻生塾</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウジン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アソウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジュク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -189,10 +153,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>クラス日誌登録システム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ＰＭ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -317,9 +277,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>PC周辺機器販売システム</t>
-  </si>
-  <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
@@ -420,9 +377,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>本画面一覧は、PC周辺機器販売システムに含まれる画面の一覧を示す。</t>
-  </si>
-  <si>
     <t>更新日付</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -528,51 +482,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>商品一覧画面</t>
-  </si>
-  <si>
-    <t>トップ画面</t>
-  </si>
-  <si>
-    <t>商品一覧</t>
-  </si>
-  <si>
-    <t>商品の一覧を表示する画面</t>
-  </si>
-  <si>
-    <t>G1-3-1</t>
-  </si>
-  <si>
-    <t>商品詳細画面</t>
-  </si>
-  <si>
-    <t>情報表示</t>
-  </si>
-  <si>
-    <t>商品詳細</t>
-  </si>
-  <si>
-    <t>商品の詳細を表示する画面</t>
-  </si>
-  <si>
-    <t>G1-4</t>
-  </si>
-  <si>
-    <t>カート内容画面</t>
-  </si>
-  <si>
-    <t>購入</t>
-  </si>
-  <si>
-    <t>カートの内容を確認する画面</t>
-  </si>
-  <si>
-    <t>G1-5</t>
-  </si>
-  <si>
-    <t>注文確定画面</t>
-  </si>
-  <si>
     <t>情報表示</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
@@ -581,9 +490,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>購入確認</t>
   </si>
   <si>
     <t>共通情報</t>
@@ -1601,6 +1507,234 @@
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Bチーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掲示板FuJi</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本画面一覧は、掲示板FuJiの画面の一覧を示す。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャット画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャット一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力フォーム、情報表示</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力フォーム、情報表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>話題新規作成画面</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>話題新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正（階層、概要）</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーの情報を新規登録する画面</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>話題の一覧を表示する画面</t>
+    <rPh sb="0" eb="2">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャットの内容を表示、入力する画面</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新しい話題を作成する画面</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーの情報を変更する画面</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1614,7 +1748,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1715,17 +1849,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1944,14 +2085,14 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2039,10 +2180,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2065,21 +2205,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2108,33 +2233,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2221,24 +2360,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2265,6 +2386,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3629,52 +3761,50 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="F26:J26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.125" style="5" customWidth="1"/>
-    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.08984375" style="5" customWidth="1"/>
+    <col min="9" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -3845,16 +3975,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="96">
-        <v>44679</v>
-      </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="98"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="94">
+        <v>45042</v>
+      </c>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -3968,26 +4098,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
+      <c r="B6" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="106"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4006,26 +4136,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
+      <c r="B7" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="70"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4033,40 +4163,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="66"/>
+      <c r="Y7" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="67"/>
       <c r="AE7" s="16"/>
-      <c r="AF7" s="44"/>
+      <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4074,16 +4204,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="84"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="82"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="44"/>
+      <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
@@ -4111,14 +4241,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="86"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="84"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="44"/>
+      <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:176" ht="15" customHeight="1">
@@ -4146,14 +4276,14 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="88"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="86"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="44"/>
+      <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
@@ -4192,207 +4322,207 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
+      <c r="B12" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="10"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="10"/>
       <c r="AF17" s="2"/>
     </row>
@@ -4433,7 +4563,7 @@
     <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
@@ -4502,255 +4632,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="69"/>
+      <c r="B21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="57"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58">
+        <v>45042</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="69"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="57"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="69"/>
+      <c r="B23" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58">
+        <v>45043</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="57"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="57"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="69"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="57"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="69"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="57"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="69"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="57"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -4857,7 +4995,32 @@
       <c r="AF30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -4874,30 +5037,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4912,130 +5051,134 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="49.375" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="49.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9" ht="14">
+      <c r="A1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="I2" s="108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" s="101"/>
+      <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C3" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="19" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I3" s="107">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A4" s="102"/>
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="18" t="s">
+      <c r="C4" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="19" t="s">
+      <c r="I4" s="108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A5" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="60">
-        <v>44830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C5" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="19" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I5" s="109" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="108" t="s">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C6" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="110">
+        <v>45043</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="17"/>
@@ -5052,177 +5195,193 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="D8" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="G9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
+        <v>169</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>62</v>
+        <v>164</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+        <v>170</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+        <v>171</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="58"/>
+        <v>47</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58"/>
+      <c r="A15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="27"/>
@@ -5232,8 +5391,8 @@
       <c r="E16" s="30"/>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21"/>
@@ -5243,8 +5402,8 @@
       <c r="E17" s="30"/>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21"/>
@@ -5254,8 +5413,8 @@
       <c r="E18" s="30"/>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="57"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21"/>
@@ -5265,8 +5424,8 @@
       <c r="E19" s="30"/>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21"/>
@@ -5276,13 +5435,13 @@
       <c r="E20" s="30"/>
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="58"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="27"/>
       <c r="E21" s="23"/>
       <c r="F21" s="28"/>
@@ -5422,12 +5581,6 @@
       <c r="H33" s="21"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5"/>
-    <row r="35" spans="1:9" ht="13.5"/>
-    <row r="36" spans="1:9" ht="13.5"/>
-    <row r="37" spans="1:9" ht="13.5"/>
-    <row r="38" spans="1:9" ht="13.5"/>
-    <row r="39" spans="1:9" ht="13.5"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D8:F8"/>
@@ -5454,126 +5607,124 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="D8:F8"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="49.375" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="49.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.1">
-      <c r="A1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+    <row r="1" spans="1:9" ht="14">
+      <c r="A1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="108" t="s">
-        <v>72</v>
+      <c r="A2" s="100" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
+        <v>52</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="109"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
+        <v>55</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="110"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
       <c r="H4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="108" t="s">
-        <v>81</v>
+      <c r="A5" s="100" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="19" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="110"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
+        <v>63</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="19" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -5592,439 +5743,439 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="D8" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>129</v>
-      </c>
       <c r="H15" s="31" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="24"/>
@@ -6169,6 +6320,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -6340,23 +6500,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5718036E-E7D8-4DA8-86AF-D97852189258}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5718036E-E7D8-4DA8-86AF-D97852189258}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC477B-ACFA-4573-A7C5-C14F07E49395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B419F5-FA90-4E45-82B2-F6E3E8E44CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1512,17 +1512,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>チーム名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Bチーム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>掲示板FuJi</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -1737,6 +1726,17 @@
     <rPh sb="12" eb="14">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>学校法人　麻生塾</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1748,7 +1748,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1867,6 +1867,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2234,168 +2240,168 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3761,7 +3767,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -3975,16 +3981,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="86">
         <v>45042</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="88"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4098,26 +4104,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="106"/>
+      <c r="B6" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4136,26 +4142,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="69"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4163,40 +4169,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="66" t="s">
+      <c r="Y7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="66" t="s">
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="66" t="s">
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="67"/>
+      <c r="AD7" s="63"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="72"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4204,14 +4210,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="81" t="s">
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="82"/>
+      <c r="AD8" s="81"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4241,12 +4247,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="84"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="83"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4276,12 +4282,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="86"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="85"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4322,105 +4328,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4632,263 +4638,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="55" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="55" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="55" t="s">
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="57"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="66"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="92">
         <v>45042</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61" t="s">
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="55" t="s">
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="57"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58">
+      <c r="B23" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="92">
         <v>45043</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="55" t="s">
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="57"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="66"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="57"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="66"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="57"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="66"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="57"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="66"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="57"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="66"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -4996,31 +5002,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5037,6 +5018,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5053,9 +5059,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5082,101 +5086,101 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="101"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="55">
         <v>45042</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="108" t="s">
-        <v>167</v>
+      <c r="I4" s="56" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="C6" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="110">
+      <c r="I6" s="58">
         <v>45043</v>
       </c>
     </row>
@@ -5195,11 +5199,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -5263,13 +5267,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>47</v>
@@ -5278,7 +5282,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
@@ -5288,13 +5292,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>47</v>
@@ -5303,7 +5307,7 @@
         <v>47</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="51"/>
@@ -5313,22 +5317,22 @@
         <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
@@ -5338,22 +5342,22 @@
         <v>105</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>164</v>
-      </c>
       <c r="E14" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="52"/>
@@ -5363,22 +5367,22 @@
         <v>111</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>164</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>166</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="52"/>
@@ -5607,7 +5611,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5634,19 +5638,19 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="19" t="s">
         <v>54</v>
       </c>
@@ -5655,17 +5659,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="101"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="19" t="s">
         <v>57</v>
       </c>
@@ -5674,17 +5678,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="102"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
@@ -5693,36 +5697,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="19" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="19" t="s">
         <v>65</v>
       </c>
@@ -5743,11 +5747,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -6320,15 +6324,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -6500,6 +6495,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
@@ -6511,14 +6515,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5718036E-E7D8-4DA8-86AF-D97852189258}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6534,4 +6530,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B419F5-FA90-4E45-82B2-F6E3E8E44CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E3B5C-C9E7-4AF2-82A9-21B6451B44AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1737,6 +1737,16 @@
   </si>
   <si>
     <t>学校法人　麻生塾</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定画面</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2248,6 +2258,84 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2257,57 +2345,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2329,32 +2366,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,27 +2413,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3767,7 +3777,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -3981,16 +3991,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="86">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="82">
         <v>45042</v>
       </c>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="88"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="84"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4104,26 +4114,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4142,26 +4152,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="67" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4169,40 +4179,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="62" t="s">
+      <c r="Y7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="62" t="s">
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="62" t="s">
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4210,14 +4220,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="80" t="s">
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="81"/>
+      <c r="AD8" s="90"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4247,12 +4257,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="83"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="92"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4282,12 +4292,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="85"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="94"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4328,105 +4338,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4638,263 +4648,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="64" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="64" t="s">
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="92">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62">
         <v>45042</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="89" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="64" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="92">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62">
         <v>45043</v>
       </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="89" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="64" t="s">
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="66"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5002,6 +5012,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5018,31 +5053,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5059,7 +5069,9 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5086,19 +5098,19 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="105" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
@@ -5107,17 +5119,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="99"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="19" t="s">
         <v>24</v>
       </c>
@@ -5126,17 +5138,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="100"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
@@ -5145,19 +5157,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
@@ -5166,17 +5178,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
@@ -5199,11 +5211,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -5389,7 +5401,9 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="27"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="C16" s="27"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -5638,19 +5652,19 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="105" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="19" t="s">
         <v>54</v>
       </c>
@@ -5659,17 +5673,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="99"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="19" t="s">
         <v>57</v>
       </c>
@@ -5678,17 +5692,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="100"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
@@ -5697,36 +5711,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="105" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="19" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="19" t="s">
         <v>65</v>
       </c>
@@ -5747,11 +5761,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -6314,13 +6328,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6496,20 +6509,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6533,9 +6545,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E3B5C-C9E7-4AF2-82A9-21B6451B44AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE29E74-DAC7-4E56-A189-6DF46617E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="181">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1747,6 +1747,39 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインチェック画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録確認画面</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-1-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-2-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-2-2</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2258,6 +2291,21 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2267,6 +2315,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2275,117 +2419,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3991,16 +4024,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="68" t="s">
+      <c r="Y2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="82">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="93">
         <v>45042</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="84"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4114,26 +4147,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="85" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="87"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4152,26 +4185,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="70" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4179,40 +4212,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="68" t="s">
+      <c r="Y7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="68" t="s">
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="68" t="s">
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="69"/>
+      <c r="AD7" s="63"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4220,14 +4253,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="89" t="s">
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="90"/>
+      <c r="AD8" s="69"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4257,12 +4290,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="92"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="71"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4292,12 +4325,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="94"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4338,105 +4371,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4648,263 +4681,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="59" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="59" t="s">
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="61"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="66"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="99">
         <v>45042</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65" t="s">
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="59" t="s">
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="61"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="99">
         <v>45043</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65" t="s">
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="59" t="s">
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="66"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="66"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="66"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="66"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="61"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="66"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5012,31 +5045,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5053,6 +5061,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5070,7 +5103,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5251,7 +5284,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>44</v>
@@ -5276,7 +5309,7 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>159</v>
@@ -5413,8 +5446,12 @@
       <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
@@ -5424,8 +5461,12 @@
       <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -6328,12 +6369,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6509,19 +6551,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6545,11 +6588,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE29E74-DAC7-4E56-A189-6DF46617E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5F0AF-DAB5-41D3-925D-D05705126012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3790" yWindow="2770" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2291,6 +2291,84 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2300,21 +2378,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,69 +2419,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4024,16 +4024,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="93">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="82">
         <v>45042</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="84"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4147,26 +4147,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4185,26 +4185,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="81" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4212,40 +4212,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="62" t="s">
+      <c r="Y7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="62" t="s">
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="62" t="s">
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4253,14 +4253,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="68" t="s">
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="69"/>
+      <c r="AD8" s="90"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4290,12 +4290,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="92"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4325,12 +4325,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="73"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="94"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4371,105 +4371,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4681,263 +4681,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="64" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="64" t="s">
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="99">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62">
         <v>45042</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="96" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="64" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="99">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62">
         <v>45043</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="96" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="64" t="s">
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="66"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5045,6 +5045,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5061,31 +5086,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5103,7 +5103,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5226,7 +5226,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="58">
-        <v>45043</v>
+        <v>45057</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
@@ -6369,13 +6369,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6551,20 +6550,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6588,9 +6586,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5F0AF-DAB5-41D3-925D-D05705126012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EDE98-4AF9-40AE-960C-B2CB19645970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3790" yWindow="2770" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1523,16 +1523,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー情報変更画面</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ヘンコウガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ホーム画面</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -1740,9 +1730,80 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>G1-1-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-2-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-2-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録完了画面</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-2-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>パスワード再設定画面</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定完了画面</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-3-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-3-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-3-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1.２</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
@@ -1750,37 +1811,205 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログインチェック画面</t>
+    <t>情報表示</t>
+  </si>
+  <si>
+    <t>情報表示</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名、パスワード変更画面</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名、パスワード変更確認画面</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名、パスワード変更完了画面</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウト完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録の内容を確認する画面</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードを再設定する画面</t>
+    <rPh sb="6" eb="9">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>再設定するパスワードを確認する画面</t>
+    <rPh sb="0" eb="3">
+      <t>サイセ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードを変更する画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更したユーザー名とパスワードを確認する画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードの変更を完了を知らせる画面</t>
+    <rPh sb="18" eb="19">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウトした事を知らせる画面</t>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの再設定が完了した事を知らせる画面</t>
+    <rPh sb="6" eb="9">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録が完了した事を知らせる画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>岩﨑　祐介</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v２</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中嶋</t>
+    <rPh sb="0" eb="2">
+      <t>ナカシマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いろいろ追加　（画面）</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー新規登録確認画面</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>カクニンガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-1-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-1-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-2-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-2-2</t>
-    <phoneticPr fontId="3"/>
+    <t>G1-6-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トップ画面</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -2291,6 +2520,21 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,6 +2544,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2309,117 +2649,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2445,6 +2674,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2543,13 +2775,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3810,7 +4042,9 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:AA24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -4024,16 +4258,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="68" t="s">
+      <c r="Y2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="82">
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="93">
         <v>45042</v>
       </c>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="84"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4147,26 +4381,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="87"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4185,26 +4419,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="70" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="72"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="83"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4212,40 +4446,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="68" t="s">
+      <c r="Y7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="68" t="s">
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="68" t="s">
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="69"/>
+      <c r="AD7" s="63"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="75"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4253,14 +4487,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="89" t="s">
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="90"/>
+      <c r="AD8" s="69"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4290,12 +4524,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="92"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="71"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4325,12 +4559,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="94"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4371,105 +4605,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4681,263 +4915,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="59" t="s">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="59" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="59" t="s">
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="61"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="66"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="99">
         <v>45042</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65" t="s">
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="59" t="s">
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="61"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="66"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="99">
+        <v>45043</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62">
-        <v>45043</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="59" t="s">
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="66"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="61"/>
+      <c r="B24" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="99">
+        <v>45057</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="96" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="66"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="66"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="66"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="61"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="66"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5045,31 +5287,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5086,6 +5303,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5100,18 +5342,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="49.36328125" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
     <col min="9" max="9" width="19.6328125" customWidth="1"/>
@@ -5186,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
@@ -5207,7 +5451,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -5226,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="58">
-        <v>45057</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
@@ -5284,7 +5528,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>44</v>
@@ -5309,16 +5553,16 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>47</v>
@@ -5327,241 +5571,319 @@
         <v>47</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>168</v>
+        <v>211</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="H12" s="49"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" customHeight="1">
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>169</v>
+        <v>211</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>170</v>
+        <v>211</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="H14" s="49"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>171</v>
+        <v>180</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="s">
+        <v>196</v>
       </c>
       <c r="H15" s="49"/>
-      <c r="I15" s="52"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="21" t="s">
+        <v>182</v>
+      </c>
       <c r="B16" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="52"/>
+        <v>181</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
+        <v>153</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="H18" s="49"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22"/>
+      <c r="A20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="H20" s="49"/>
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="24"/>
+      <c r="A21" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="30"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="24"/>
+      <c r="G22" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="111" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="24"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="24"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="24"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
       <c r="A27" s="21"/>
@@ -5569,10 +5891,10 @@
       <c r="C27" s="22"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="24"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
       <c r="A28" s="21"/>
@@ -5580,10 +5902,10 @@
       <c r="C28" s="22"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="24"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="21"/>
@@ -5591,10 +5913,10 @@
       <c r="C29" s="22"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="24"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="21"/>
@@ -5602,31 +5924,31 @@
       <c r="C30" s="22"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="33"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
       <c r="A32" s="21"/>
       <c r="B32" s="18"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
@@ -5634,11 +5956,121 @@
       <c r="B33" s="18"/>
       <c r="C33" s="22"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="21"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5666,7 +6098,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -6369,12 +6801,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6550,19 +6983,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6586,11 +7020,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE29E74-DAC7-4E56-A189-6DF46617E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB3229-E4BD-407A-8512-BF3C15E4D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1780,6 +1780,13 @@
   </si>
   <si>
     <t>G1-2-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウト完了画面</t>
+    <rPh sb="5" eb="9">
+      <t>カンリョウガメン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2291,6 +2298,84 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2300,21 +2385,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,69 +2426,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4024,16 +4031,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="93">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="82">
         <v>45042</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="84"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4147,26 +4154,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4185,26 +4192,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="81" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4212,40 +4219,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="62" t="s">
+      <c r="Y7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="62" t="s">
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="62" t="s">
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="75"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4253,14 +4260,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="68" t="s">
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="69"/>
+      <c r="AD8" s="90"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4290,12 +4297,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="92"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4325,12 +4332,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="73"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="94"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4371,105 +4378,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4681,263 +4688,263 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="64" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="64" t="s">
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="61"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="99">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62">
         <v>45042</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="96" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="64" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="99">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62">
         <v>45043</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="96" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="64" t="s">
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="61"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="61"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="61"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="66"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5045,6 +5052,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5061,31 +5093,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5102,7 +5109,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5477,7 +5484,9 @@
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -6369,13 +6378,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6551,20 +6559,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6588,9 +6595,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EDE98-4AF9-40AE-960C-B2CB19645970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9646D3-BDBF-4CC3-9F91-E2868D5F47A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2520,6 +2520,87 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2529,21 +2610,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2586,69 +2652,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2674,9 +2677,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4258,16 +4258,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="62" t="s">
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="93">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="83">
         <v>45042</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4381,26 +4381,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="88"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4419,26 +4419,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="81" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4446,40 +4446,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="62" t="s">
+      <c r="Y7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="62" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="62" t="s">
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="63"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4487,14 +4487,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="68" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="69"/>
+      <c r="AD8" s="91"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4524,12 +4524,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="93"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4559,12 +4559,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="73"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4605,105 +4605,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4915,271 +4915,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="64" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="64" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="99">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63">
         <v>45042</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="96" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="64" t="s">
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="99">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63">
         <v>45043</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="96" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="64" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="99">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63">
         <v>45057</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="96" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="64" t="s">
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="66"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="66"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="66"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="62"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="66"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5287,6 +5287,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5303,31 +5328,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5344,8 +5344,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5375,19 +5375,19 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
@@ -5396,17 +5396,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="106"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
         <v>24</v>
       </c>
@@ -5415,17 +5415,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="107"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
@@ -5434,19 +5434,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="106" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="19" t="s">
         <v>31</v>
       </c>
@@ -5455,17 +5455,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="19" t="s">
         <v>33</v>
       </c>
@@ -5488,11 +5488,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -5845,7 +5845,7 @@
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="59" t="s">
         <v>210</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -5854,7 +5854,9 @@
       <c r="C24" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30" t="s">
+        <v>161</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="23"/>
       <c r="G24" s="22" t="s">
@@ -5864,7 +5866,7 @@
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="111"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="18"/>
       <c r="C25" s="27"/>
       <c r="D25" s="30"/>
@@ -5875,7 +5877,7 @@
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="111"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="18"/>
       <c r="C26" s="27"/>
       <c r="D26" s="30"/>
@@ -6098,7 +6100,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -6125,19 +6127,19 @@
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="19" t="s">
         <v>54</v>
       </c>
@@ -6146,17 +6148,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="106"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
         <v>57</v>
       </c>
@@ -6165,17 +6167,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="107"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="19" t="s">
         <v>10</v>
       </c>
@@ -6184,36 +6186,36 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="106" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="19" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
       <c r="H6" s="19" t="s">
         <v>65</v>
       </c>
@@ -6234,11 +6236,11 @@
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -6801,13 +6803,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6983,20 +6984,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7020,9 +7020,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9646D3-BDBF-4CC3-9F91-E2868D5F47A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C90AC7-230E-4B47-AC1C-7DF31CA3E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="224">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1564,14 +1577,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>入力フォーム、情報表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー新規登録画面</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>話題新規作成画面</t>
     <rPh sb="0" eb="2">
       <t>ワダイ</t>
@@ -1611,16 +1616,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー情報変更</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2010,6 +2005,123 @@
   </si>
   <si>
     <t>トップ画面</t>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録入力画面</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録完了</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード修正</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード修正</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正完了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報修正</t>
+    <rPh sb="6" eb="8">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報修正</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正完了</t>
+    <rPh sb="0" eb="2">
+      <t>s</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2523,6 +2635,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2532,6 +2659,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2540,117 +2763,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4042,7 +4154,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="K24" sqref="K24:AA24"/>
     </sheetView>
   </sheetViews>
@@ -4258,16 +4370,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="94">
         <v>45042</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4381,26 +4493,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
+      <c r="B6" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4419,26 +4531,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4446,40 +4558,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="69" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4487,14 +4599,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="90" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="91"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4524,12 +4636,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4559,12 +4671,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4605,105 +4717,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4915,271 +5027,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="60" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="100">
         <v>45042</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="60" t="s">
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63">
+      <c r="B23" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="100">
         <v>45043</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="60" t="s">
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63">
+      <c r="B24" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="100">
         <v>45057</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5287,31 +5399,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5328,6 +5415,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5344,8 +5456,8 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5430,7 +5542,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
@@ -5451,7 +5563,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -5528,7 +5640,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>44</v>
@@ -5553,130 +5665,150 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="28"/>
+        <v>208</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="G12" s="29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>214</v>
+      </c>
       <c r="G13" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="28"/>
+        <v>208</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>213</v>
+      </c>
       <c r="G14" s="29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28"/>
+        <v>208</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>218</v>
+      </c>
       <c r="G15" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="28"/>
+        <v>208</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>217</v>
+      </c>
       <c r="G16" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
@@ -5692,7 +5824,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>47</v>
@@ -5701,7 +5833,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="51"/>
@@ -5717,41 +5849,41 @@
         <v>156</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>154</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>155</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="52"/>
@@ -5761,22 +5893,22 @@
         <v>126</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="52"/>
@@ -5786,18 +5918,22 @@
         <v>132</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>213</v>
+      </c>
       <c r="G21" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="52"/>
@@ -5807,60 +5943,72 @@
         <v>135</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>222</v>
+      </c>
       <c r="G22" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>223</v>
+      </c>
       <c r="G23" s="22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G24" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="52"/>
@@ -6100,7 +6248,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -6803,12 +6951,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6984,19 +7133,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7020,11 +7170,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C90AC7-230E-4B47-AC1C-7DF31CA3E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4F9B-D8E6-4C60-A783-0407CDF0F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="229">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1996,14 +1996,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-6-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>トップ画面</t>
   </si>
   <si>
@@ -2121,6 +2113,34 @@
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-8</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2635,6 +2655,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2644,21 +2742,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2700,69 +2783,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4370,16 +4390,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="83">
         <v>45042</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4493,26 +4513,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="88"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4531,26 +4551,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="82" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="84"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4558,40 +4578,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="63" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="64"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="87"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4599,14 +4619,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="69" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="70"/>
+      <c r="AD8" s="91"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4636,12 +4656,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="72"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="93"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4671,12 +4691,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4717,105 +4737,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5027,271 +5047,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="65" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="67"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="100">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63">
         <v>45042</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="97" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="65" t="s">
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="67"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="100">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63">
         <v>45043</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="97" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="65" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="67"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="100">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63">
         <v>45057</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="97" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="65" t="s">
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="67"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="67"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="67"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="62"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="67"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5399,6 +5419,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5415,31 +5460,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5457,7 +5477,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5668,7 +5688,7 @@
         <v>171</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>45</v>
@@ -5677,10 +5697,10 @@
         <v>158</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>163</v>
@@ -5699,13 +5719,13 @@
         <v>186</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>210</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>191</v>
@@ -5724,13 +5744,13 @@
         <v>186</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>201</v>
@@ -5749,13 +5769,13 @@
         <v>194</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>192</v>
@@ -5774,13 +5794,13 @@
         <v>186</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>193</v>
@@ -5799,13 +5819,13 @@
         <v>186</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>200</v>
@@ -5815,7 +5835,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>152</v>
@@ -5840,7 +5860,7 @@
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>153</v>
@@ -5855,7 +5875,7 @@
         <v>154</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>165</v>
@@ -5865,7 +5885,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>157</v>
@@ -5880,7 +5900,7 @@
         <v>160</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>166</v>
@@ -5890,7 +5910,7 @@
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>184</v>
@@ -5902,7 +5922,7 @@
         <v>159</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>47</v>
@@ -5915,7 +5935,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>187</v>
@@ -5927,10 +5947,10 @@
         <v>159</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>196</v>
@@ -5940,7 +5960,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>188</v>
@@ -5952,10 +5972,10 @@
         <v>159</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>197</v>
@@ -5965,7 +5985,7 @@
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>189</v>
@@ -5977,10 +5997,10 @@
         <v>159</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>198</v>
@@ -5990,7 +6010,7 @@
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>190</v>
@@ -6951,13 +6971,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7133,20 +7152,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7170,9 +7188,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4F9B-D8E6-4C60-A783-0407CDF0F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE90CE-3495-40A8-8BE0-5634CAE44FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1536,13 +1536,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ホーム画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>チャット画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1653,22 +1646,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>話題の一覧を表示する画面</t>
-    <rPh sb="0" eb="2">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>チャットの内容を表示、入力する画面</t>
     <rPh sb="5" eb="7">
       <t>ナイヨウ</t>
@@ -1725,15 +1702,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-1-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>G1-2-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-2-2</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1751,10 +1720,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-2-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード再設定画面</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2116,10 +2081,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>G1-6</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2141,6 +2102,14 @@
   </si>
   <si>
     <t>G1-8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>話題の一覧を表示する画面</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2655,6 +2624,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2664,6 +2648,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2672,117 +2752,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2907,7 +2876,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4390,16 +4359,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="94">
         <v>45042</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4513,26 +4482,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
+      <c r="B6" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4551,26 +4520,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4578,40 +4547,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="69" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4619,14 +4588,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="90" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="91"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4656,12 +4625,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4691,12 +4660,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4737,105 +4706,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5047,271 +5016,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="60" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="100">
         <v>45042</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="60" t="s">
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="100">
+        <v>45043</v>
+      </c>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63">
-        <v>45043</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="60" t="s">
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63">
+      <c r="B24" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="100">
         <v>45057</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5419,31 +5388,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5460,6 +5404,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5476,9 +5445,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5562,7 +5529,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
@@ -5583,7 +5550,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -5660,16 +5627,16 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>47</v>
@@ -5678,57 +5645,57 @@
         <v>47</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>208</v>
-      </c>
       <c r="G12" s="29" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
@@ -5738,288 +5705,288 @@
         <v>175</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>186</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>194</v>
-      </c>
       <c r="D14" s="27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="G15" s="29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>164</v>
+        <v>210</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="H17" s="49"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="F18" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>47</v>
@@ -6028,7 +5995,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="52"/>
@@ -6971,12 +6938,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7152,19 +7120,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7188,11 +7157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B4F9B-D8E6-4C60-A783-0407CDF0F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07000985-73BA-4B28-A736-9918347C0179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -22,19 +22,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -181,13 +168,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>岩﨑</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>画面一覧表</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1975,10 +1955,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>v２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>中嶋</t>
     <rPh sb="0" eb="2">
       <t>ナカシマ</t>
@@ -2141,6 +2117,17 @@
   </si>
   <si>
     <t>G1-8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>岩﨑、中嶋</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2655,6 +2642,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2664,6 +2666,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2672,117 +2770,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4174,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:AA24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -4390,16 +4377,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="94">
         <v>45042</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4513,26 +4500,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4551,26 +4538,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4578,40 +4565,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="69" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4619,14 +4606,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="91"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4656,12 +4643,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4691,12 +4678,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4737,105 +4724,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="B12" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4978,7 +4965,7 @@
     <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
@@ -5047,271 +5034,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="60" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63">
+      <c r="B22" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="100">
         <v>45042</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="100">
+        <v>45043</v>
+      </c>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63">
-        <v>45043</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="100">
+        <v>45057</v>
+      </c>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63">
-        <v>45057</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5419,31 +5406,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5460,6 +5422,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5476,7 +5463,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -5495,7 +5482,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14">
       <c r="A1" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -5508,39 +5495,39 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
       <c r="G2" s="111"/>
       <c r="H2" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="109" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="110"/>
       <c r="E3" s="110"/>
       <c r="F3" s="110"/>
       <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="55">
         <v>45042</v>
@@ -5549,57 +5536,57 @@
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
       <c r="A4" s="108"/>
       <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
       <c r="G4" s="111"/>
       <c r="H4" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="A5" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="109" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="110"/>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
       <c r="G5" s="111"/>
       <c r="H5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
       <c r="F6" s="110"/>
       <c r="G6" s="111"/>
       <c r="H6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="58">
         <v>45043</v>
@@ -5621,7 +5608,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="105"/>
@@ -5631,404 +5618,404 @@
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>211</v>
-      </c>
       <c r="G11" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>173</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>208</v>
-      </c>
       <c r="G12" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H13" s="49"/>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="G15" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="F18" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>160</v>
-      </c>
       <c r="F19" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>221</v>
-      </c>
       <c r="G23" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="52"/>
@@ -6283,7 +6270,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14">
       <c r="A1" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -6296,96 +6283,96 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="109" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="109" t="s">
-        <v>53</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
       <c r="F2" s="110"/>
       <c r="G2" s="111"/>
       <c r="H2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
       <c r="A3" s="107"/>
       <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="109" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="109" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="110"/>
       <c r="E3" s="110"/>
       <c r="F3" s="110"/>
       <c r="G3" s="111"/>
       <c r="H3" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
       <c r="A4" s="108"/>
       <c r="B4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>59</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
       <c r="F4" s="110"/>
       <c r="G4" s="111"/>
       <c r="H4" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
       <c r="A5" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="109" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="110"/>
       <c r="E5" s="110"/>
       <c r="F5" s="110"/>
       <c r="G5" s="111"/>
       <c r="H5" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="A6" s="108"/>
       <c r="B6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
       <c r="F6" s="110"/>
       <c r="G6" s="111"/>
       <c r="H6" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -6405,7 +6392,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="105"/>
@@ -6415,428 +6402,428 @@
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="45" t="s">
         <v>83</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="I13" s="46" t="s">
         <v>96</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="F14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H14" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="I15" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I16" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="F19" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="24"/>
@@ -6971,12 +6958,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7152,19 +7140,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7188,11 +7177,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE90CE-3495-40A8-8BE0-5634CAE44FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D7C802-40EC-4C91-9CF3-92AAC7C50EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -22,19 +22,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -118,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1702,10 +1689,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-2-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー新規登録確認画面</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
@@ -1738,23 +1721,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-3-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-3-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-3-1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>v1.２</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-5</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1778,19 +1745,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー名、パスワード変更画面</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー名、パスワード変更確認画面</t>
     <rPh sb="13" eb="15">
       <t>カクニン</t>
@@ -2081,10 +2035,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>G1-7-1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2110,6 +2060,26 @@
   </si>
   <si>
     <t>話題の一覧を表示する画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名、パスワード変更入力画面</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-5-3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2624,6 +2594,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2633,21 +2681,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2689,69 +2722,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2876,7 +2846,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -4359,16 +4329,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="83">
         <v>45042</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4482,26 +4452,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="88"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4520,26 +4490,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="82" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="84"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4547,40 +4517,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="63" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="64"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="87"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4588,14 +4558,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="69" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="70"/>
+      <c r="AD8" s="91"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4625,12 +4595,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="72"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="93"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4660,12 +4630,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4706,105 +4676,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5016,271 +4986,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="65" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="67"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="100">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63">
         <v>45042</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="97" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="65" t="s">
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="67"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="100">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63">
         <v>45043</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="97" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="65" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="67"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="100">
+      <c r="B24" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63">
         <v>45057</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="67"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="67"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="67"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="62"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="67"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5388,6 +5358,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5404,31 +5399,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5445,7 +5415,9 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5529,7 +5501,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
@@ -5550,7 +5522,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -5630,10 +5602,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>158</v>
@@ -5645,251 +5617,251 @@
         <v>47</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="D13" s="27" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="H14" s="49"/>
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D16" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>211</v>
-      </c>
       <c r="G16" s="29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="1:9" ht="17" customHeight="1">
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>163</v>
+        <v>195</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>164</v>
+        <v>195</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>47</v>
@@ -5902,88 +5874,88 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="59" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>158</v>
@@ -5995,7 +5967,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H24" s="53"/>
       <c r="I24" s="52"/>
@@ -6938,13 +6910,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7120,20 +7091,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7157,9 +7127,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D7C802-40EC-4C91-9CF3-92AAC7C50EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F3460-5B8A-4CB2-BC2E-168A8CAB2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="223">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1689,24 +1689,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー新規登録確認画面</t>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー新規登録完了画面</t>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワード再設定画面</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワード再設定確認画面</t>
     <rPh sb="8" eb="10">
       <t>カクニン</t>
@@ -1765,16 +1747,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログアウト完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規登録の内容を確認する画面</t>
     <rPh sb="5" eb="7">
       <t>ナイヨウ</t>
@@ -1842,19 +1814,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ログアウトした事を知らせる画面</t>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>パスワードの再設定が完了した事を知らせる画面</t>
     <rPh sb="6" eb="9">
       <t>サイセッテイ</t>
@@ -1939,13 +1898,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー新規登録入力画面</t>
-    <rPh sb="8" eb="10">
-      <t>ニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
       <t>ニュウ</t>
@@ -2047,14 +1999,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-7-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>G1-8</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ホーム画面</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2079,7 +2023,59 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>G1-5-3</t>
+    <t>'G1-5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウト完了画面</t>
+  </si>
+  <si>
+    <t>ログアウトした事を知らせる画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-8-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-8-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-8-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-8-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定入力画面</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録入力画面</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録完了画面</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2594,6 +2590,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2603,6 +2614,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2611,117 +2718,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,13 +2842,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4329,16 +4325,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="94">
         <v>45042</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4452,26 +4448,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4490,26 +4486,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4517,40 +4513,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="69" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4558,14 +4554,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="90" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="91"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4595,12 +4591,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4630,12 +4626,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4676,105 +4672,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -4986,271 +4982,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="60" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="100">
         <v>45042</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="60" t="s">
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="100">
         <v>45043</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="60" t="s">
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63">
+      <c r="B24" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="100">
         <v>45057</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5358,31 +5354,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5399,6 +5370,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5413,10 +5409,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5501,7 +5497,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
@@ -5522,7 +5518,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
@@ -5602,10 +5598,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>158</v>
@@ -5617,7 +5613,7 @@
         <v>47</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="48"/>
@@ -5633,13 +5629,13 @@
         <v>155</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>153</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>163</v>
@@ -5658,13 +5654,13 @@
         <v>154</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>164</v>
@@ -5674,7 +5670,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>44</v>
@@ -5698,278 +5694,278 @@
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>45</v>
+      <c r="A14" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>172</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+        <v>213</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>190</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D17" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>200</v>
-      </c>
       <c r="G17" s="29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="H20" s="49"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>212</v>
+      <c r="A21" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="59" t="s">
-        <v>215</v>
+      <c r="A24" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>47</v>
+      <c r="E24" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="53"/>
+        <v>183</v>
+      </c>
+      <c r="H24" s="49"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
@@ -5977,7 +5973,7 @@
       <c r="B25" s="18"/>
       <c r="C25" s="27"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="22"/>
       <c r="H25" s="53"/>
@@ -5995,9 +5991,9 @@
       <c r="I26" s="52"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="23"/>
@@ -6013,8 +6009,8 @@
       <c r="E28" s="30"/>
       <c r="F28" s="23"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
       <c r="A29" s="21"/>
@@ -6025,7 +6021,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="22"/>
       <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="21"/>
@@ -6036,34 +6032,34 @@
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="24"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="30"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="31"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="18"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="30"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -6076,10 +6072,10 @@
       <c r="B34" s="18"/>
       <c r="C34" s="22"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="34"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
@@ -6112,7 +6108,7 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="31"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
@@ -6145,8 +6141,8 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1">
       <c r="A41" s="21"/>
@@ -6168,7 +6164,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="22"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1">
       <c r="A43" s="21"/>
@@ -6180,6 +6176,17 @@
       <c r="G43" s="22"/>
       <c r="H43" s="21"/>
       <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6910,12 +6917,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7091,19 +7099,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7127,11 +7136,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45F3460-5B8A-4CB2-BC2E-168A8CAB2AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3169FB-E0F4-4172-8F2A-DCCD5DD30F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="226">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2076,6 +2076,33 @@
   </si>
   <si>
     <t>新規登録完了画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再設定ユーザー確認画面</t>
+    <rPh sb="5" eb="12">
+      <t>サイセ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーを確認する画面</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-7-4</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2842,13 +2869,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>840441</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5409,10 +5436,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -5798,13 +5825,13 @@
         <v>205</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>196</v>
@@ -5813,7 +5840,7 @@
         <v>194</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
@@ -5823,22 +5850,22 @@
         <v>206</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>190</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="49"/>
       <c r="I19" s="50"/>
@@ -5848,7 +5875,7 @@
         <v>207</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>173</v>
@@ -5860,95 +5887,95 @@
         <v>197</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H20" s="49"/>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A22" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>173</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H22" s="49"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="49"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>172</v>
@@ -5960,23 +5987,37 @@
         <v>202</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="49"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="49"/>
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
@@ -5984,7 +6025,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="27"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="22"/>
       <c r="H26" s="53"/>
@@ -6002,9 +6043,9 @@
       <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="23"/>
@@ -6020,8 +6061,8 @@
       <c r="E29" s="30"/>
       <c r="F29" s="23"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="51"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
       <c r="A30" s="21"/>
@@ -6032,7 +6073,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
       <c r="A31" s="21"/>
@@ -6043,34 +6084,34 @@
       <c r="F31" s="23"/>
       <c r="G31" s="22"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="24"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="31"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="30"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -6083,10 +6124,10 @@
       <c r="B35" s="18"/>
       <c r="C35" s="22"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="34"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
@@ -6119,7 +6160,7 @@
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="31"/>
+      <c r="H38" s="34"/>
       <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1">
@@ -6152,8 +6193,8 @@
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1">
       <c r="A42" s="21"/>
@@ -6175,7 +6216,7 @@
       <c r="F43" s="30"/>
       <c r="G43" s="22"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1">
       <c r="A44" s="21"/>
@@ -6187,6 +6228,17 @@
       <c r="G44" s="22"/>
       <c r="H44" s="21"/>
       <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\desktop-tutorial\02_画面設計書・モックアップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3169FB-E0F4-4172-8F2A-DCCD5DD30F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F860188-A1BC-4247-BBDF-A0D6CE91F963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2617,6 +2617,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2626,21 +2704,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2682,69 +2745,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4136,9 +4136,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:AA24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -4352,16 +4350,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="94">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="83">
         <v>45042</v>
       </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="96"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4475,26 +4473,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="88"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4513,26 +4511,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="82" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="84"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4540,40 +4538,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="63" t="s">
+      <c r="Y7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="63" t="s">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="63" t="s">
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="64"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="87"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4581,14 +4579,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="69" t="s">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="70"/>
+      <c r="AD8" s="91"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4618,12 +4616,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="72"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="93"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4653,12 +4651,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="95"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4699,105 +4697,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5009,271 +5007,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="65" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="65" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="67"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="62"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="100">
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63">
         <v>45042</v>
       </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="97" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="65" t="s">
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="67"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="62"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="100">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63">
         <v>45043</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="97" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="65" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="67"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="100">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63">
         <v>45057</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="97" t="s">
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="65" t="s">
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="67"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="62"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="67"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="62"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="99"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="67"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="62"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="67"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="62"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5381,6 +5379,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5397,31 +5420,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5438,9 +5436,7 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -6266,7 +6262,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -6969,13 +6965,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7151,20 +7146,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7188,9 +7182,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面一覧表.xlsx
+++ b/02_画面設計書・モックアップ/画面一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konoh\Documents\GitHub\2023Dev3Early\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F860188-A1BC-4247-BBDF-A0D6CE91F963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C71BB8-B466-4BA4-A4BD-D626F41CBB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2023,10 +2023,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>'G1-5</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログアウト完了画面</t>
   </si>
   <si>
@@ -2103,6 +2099,10 @@
   </si>
   <si>
     <t>G1-7-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>G1-5</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2617,6 +2617,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2626,6 +2641,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2634,117 +2745,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4136,7 +4136,7 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -4350,16 +4350,16 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="83">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="94">
         <v>45042</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="96"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -4473,26 +4473,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="86" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="62"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -4511,26 +4511,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="71" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="73"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="84"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -4538,40 +4538,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="69" t="s">
+      <c r="Y7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="69" t="s">
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="69" t="s">
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD7" s="70"/>
+      <c r="AD7" s="64"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="43"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -4579,14 +4579,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="90" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="91"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="43"/>
       <c r="AG8" s="2"/>
@@ -4616,12 +4616,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="43"/>
       <c r="AG9" s="2"/>
@@ -4651,12 +4651,12 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="14"/>
       <c r="AF10" s="43"/>
       <c r="AG10" s="7"/>
@@ -4697,105 +4697,105 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
       <c r="AE14" s="10"/>
       <c r="AF14" s="2"/>
     </row>
@@ -5007,271 +5007,271 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="60" t="s">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="60" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="67"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63">
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="100">
         <v>45042</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="60" t="s">
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="62"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="67"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="100">
         <v>45043</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66" t="s">
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="60" t="s">
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="62"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="67"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="100">
         <v>45057</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66" t="s">
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="60" t="s">
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="62"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="62"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="62"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="9"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="62"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="2"/>
     </row>
@@ -5379,31 +5379,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
     <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="F22:J22"/>
@@ -5420,6 +5395,31 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -5436,7 +5436,7 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>44</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>212</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>172</v>
@@ -5736,7 +5736,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
@@ -5746,7 +5746,7 @@
         <v>126</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>45</v>
@@ -5771,7 +5771,7 @@
         <v>132</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>173</v>
@@ -5796,7 +5796,7 @@
         <v>135</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>173</v>
@@ -5821,7 +5821,7 @@
         <v>205</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>180</v>
@@ -5836,7 +5836,7 @@
         <v>194</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="50"/>
@@ -5846,7 +5846,7 @@
         <v>206</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>179</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>169</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>171</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>210</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>174</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>175</v>
@@ -6965,12 +6965,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7146,19 +7147,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7182,11 +7184,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{396B2247-2B4C-41FB-ACB8-795FDB129C45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2971452A-2CA0-4607-A9E5-787FEA180FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>